--- a/MISC/marks_18.12.2017.xlsx
+++ b/MISC/marks_18.12.2017.xlsx
@@ -297,14 +297,14 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
@@ -727,6 +727,9 @@
       <c r="C20" s="2" t="n">
         <v>2.5</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" s="2" t="n">
         <v>3.75</v>
       </c>
@@ -735,7 +738,7 @@
       </c>
       <c r="G20" s="2" t="n">
         <f aca="false">SUM(B20:F20)</f>
-        <v>22.3431970509383</v>
+        <v>23.3431970509383</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -776,11 +779,11 @@
         <v>4.58333333333333</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="n">
         <f aca="false">SUM(B22:F22)</f>
-        <v>27.8677550108515</v>
+        <v>28.8677550108515</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
